--- a/MAA-YOJANA-PACKAGELIST/Accounts/transactionDetails.xlsx
+++ b/MAA-YOJANA-PACKAGELIST/Accounts/transactionDetails.xlsx
@@ -8,13 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TDS Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$26</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>T.ID</t>
   </si>
@@ -130,9 +134,6 @@
     <t>T03032537310102</t>
   </si>
   <si>
-    <t>18-Jan-25 </t>
-  </si>
-  <si>
     <t>T21022537066920</t>
   </si>
   <si>
@@ -161,6 +162,54 @@
   </si>
   <si>
     <t>Pooja Nayak</t>
+  </si>
+  <si>
+    <t>T21032537707699</t>
+  </si>
+  <si>
+    <t>Aditiya Sen</t>
+  </si>
+  <si>
+    <t>T23032537764159</t>
+  </si>
+  <si>
+    <t>Sukhdev Kathath</t>
+  </si>
+  <si>
+    <t>T24032537793612</t>
+  </si>
+  <si>
+    <t>Goru Lal Bairwa</t>
+  </si>
+  <si>
+    <t>T27032537875911</t>
+  </si>
+  <si>
+    <t>Mahendra</t>
+  </si>
+  <si>
+    <t>T05042538078211</t>
+  </si>
+  <si>
+    <t>T07042538108794</t>
+  </si>
+  <si>
+    <t>Khimi Devi</t>
+  </si>
+  <si>
+    <t>Saddam Husain</t>
+  </si>
+  <si>
+    <t>T10042538188312</t>
+  </si>
+  <si>
+    <t>Amit Jangid</t>
+  </si>
+  <si>
+    <t>T26032537826555</t>
+  </si>
+  <si>
+    <t>Chhitar Bairwa</t>
   </si>
 </sst>
 </file>
@@ -186,35 +235,29 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF073B31"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF362B36"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -248,40 +291,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,14 +665,14 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
@@ -614,214 +685,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>45686</v>
+      <c r="A2" s="17">
+        <v>45660</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>15000</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5">
+        <v>17000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="3">
         <f>D2+E2</f>
-        <v>15000</v>
-      </c>
-      <c r="G2" s="6">
+        <v>27000</v>
+      </c>
+      <c r="G2" s="4">
         <f>F2*10/100</f>
-        <v>1500</v>
-      </c>
-      <c r="H2" s="6">
+        <v>2700</v>
+      </c>
+      <c r="H2" s="4">
         <f>F2-G2</f>
-        <v>13500</v>
+        <v>24300</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>45692</v>
+      <c r="A3" s="17">
+        <v>45674</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>13200</v>
-      </c>
-      <c r="E3" s="5">
-        <v>9000</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F19" si="0">D3+E3</f>
-        <v>22200</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G19" si="1">F3*10/100</f>
-        <v>2220</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H19" si="2">F3-G3</f>
-        <v>19980</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="5">
+        <v>16000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3+D3</f>
+        <v>22000</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F3*10/100</f>
+        <v>2200</v>
+      </c>
+      <c r="H3" s="4">
+        <f>F3-G3</f>
+        <v>19800</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>45693</v>
+      <c r="A4" s="17">
+        <v>45684</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>D4+E4</f>
         <v>15000</v>
       </c>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
+      <c r="G4" s="4">
+        <f>F4*10/100</f>
         <v>1500</v>
       </c>
-      <c r="H4" s="6">
-        <f t="shared" si="2"/>
+      <c r="H4" s="4">
+        <f>F4-G4</f>
         <v>13500</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>45695</v>
+      <c r="A5" s="18">
+        <v>45690</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>15000</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="2"/>
-        <v>13500</v>
+        <v>13200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F5" s="3">
+        <f>D5+E5</f>
+        <v>22200</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5*10/100</f>
+        <v>2220</v>
+      </c>
+      <c r="H5" s="4">
+        <f>F5-G5</f>
+        <v>19980</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="6" t="str">
-        <f>"Dr " &amp; SUMIF(I2:I15,"paid",G2:G15)</f>
-        <v>Dr 17970</v>
-      </c>
-      <c r="K5" s="6" t="str">
-        <f>"Cr " &amp; SUMIF(I2:I15,"pending",G2:G15)</f>
-        <v>Cr 9560</v>
-      </c>
-      <c r="L5" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>27530</v>
+      <c r="J5" s="4" t="str">
+        <f>"Dr " &amp; SUMIF(I2:I24,"paid",G2:G24)</f>
+        <v>Dr 20320</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f>"Cr " &amp; SUMIF(I2:I24,"pending",G2:G24)</f>
+        <v>Cr 31305</v>
+      </c>
+      <c r="L5" s="6">
+        <f>SUM(G2:G24)</f>
+        <v>51625</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45694</v>
+      <c r="A6" s="17">
+        <v>45691</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="3">
+        <f>D6+E6</f>
+        <v>15000</v>
+      </c>
+      <c r="G6" s="4">
+        <f>F6*10/100</f>
         <v>1500</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
+      <c r="H6" s="4">
+        <f>F6-G6</f>
         <v>13500</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="2"/>
-        <v>12150</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -831,32 +906,30 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45703</v>
+      <c r="A7" s="18">
+        <v>45693</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>17000</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>57000</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>5700</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="2"/>
-        <v>51300</v>
+        <v>15000</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3">
+        <f>D7+E7</f>
+        <v>15000</v>
+      </c>
+      <c r="G7" s="4">
+        <f>F7*10/100</f>
+        <v>1500</v>
+      </c>
+      <c r="H7" s="4">
+        <f>F7-G7</f>
+        <v>13500</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -872,293 +945,299 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>45704</v>
+      <c r="A8" s="17">
+        <v>45693</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
         <v>12000</v>
       </c>
       <c r="E8" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>1700</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="2"/>
-        <v>15300</v>
+        <v>1500</v>
+      </c>
+      <c r="F8" s="3">
+        <f>D8+E8</f>
+        <v>13500</v>
+      </c>
+      <c r="G8" s="4">
+        <f>F8*10/100</f>
+        <v>1350</v>
+      </c>
+      <c r="H8" s="4">
+        <f>F8-G8</f>
+        <v>12150</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f>"Cr "  &amp; SUMIF(I2:I15, "paid", H2:H15)</f>
-        <v>Cr 161730</v>
+        <f>"Cr "  &amp; SUMIF(I2:I24, "paid", H2:H24)</f>
+        <v>Cr 182880</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f>"Dr " &amp;SUMIF(I2:I15, "pending", H2:H15)</f>
-        <v>Dr 86040</v>
-      </c>
-      <c r="L8" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>247770</v>
+        <f>"Dr " &amp;SUMIF(I2:I24, "pending", H2:H24)</f>
+        <v>Dr 281745</v>
+      </c>
+      <c r="L8" s="6">
+        <f>SUM(H2:H24)</f>
+        <v>464625</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>45706</v>
+      <c r="A9" s="17">
+        <v>45699</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="10">
-        <v>5000</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>17000</v>
+      </c>
+      <c r="F9" s="3">
+        <f>D9+E9</f>
+        <v>57000</v>
+      </c>
+      <c r="G9" s="4">
+        <f>F9*10/100</f>
+        <v>5700</v>
+      </c>
+      <c r="H9" s="4">
+        <f>F9-G9</f>
+        <v>51300</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>45706</v>
+      <c r="A10" s="18">
+        <v>45703</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10">
-        <v>15000</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="2"/>
-        <v>13500</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="3">
+        <f>D10+E10</f>
+        <v>17000</v>
+      </c>
+      <c r="G10" s="4">
+        <f>F10*10/100</f>
+        <v>1700</v>
+      </c>
+      <c r="H10" s="4">
+        <f>F10-G10</f>
+        <v>15300</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="18">
+        <v>45705</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f>D11+E11</f>
+        <v>5000</v>
+      </c>
+      <c r="G11" s="4">
+        <f>F11*10/100</f>
+        <v>500</v>
+      </c>
+      <c r="H11" s="4">
+        <f>F11-G11</f>
+        <v>4500</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>45705</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f>D12+E12</f>
+        <v>15000</v>
+      </c>
+      <c r="G12" s="4">
+        <f>F12*10/100</f>
+        <v>1500</v>
+      </c>
+      <c r="H12" s="4">
+        <f>F12-G12</f>
+        <v>13500</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>45709</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="10">
-        <v>16000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6000</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>22000</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="2"/>
-        <v>19800</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f>D13+E13</f>
+        <v>5000</v>
+      </c>
+      <c r="G13" s="4">
+        <f>F13*10/100</f>
+        <v>500</v>
+      </c>
+      <c r="H13" s="4">
+        <f>F13-G13</f>
+        <v>4500</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>45718</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16100</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7000</v>
+      </c>
+      <c r="F14" s="3">
+        <f>D14+E14</f>
+        <v>23100</v>
+      </c>
+      <c r="G14" s="4">
+        <f>F14*10/100</f>
+        <v>2310</v>
+      </c>
+      <c r="H14" s="4">
+        <f>F14-G14</f>
+        <v>20790</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>45718</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="10">
-        <v>16100</v>
-      </c>
-      <c r="E12" s="10">
-        <v>7000</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>23100</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>2310</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="2"/>
-        <v>20790</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>45720</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>45719</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D15" s="5">
         <v>20500</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E15" s="5">
         <v>3000</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
+      <c r="F15" s="3">
+        <f>D15+E15</f>
         <v>23500</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
+      <c r="G15" s="4">
+        <f>F15*10/100</f>
         <v>2350</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="2"/>
+      <c r="H15" s="4">
+        <f>F15-G15</f>
         <v>21150</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>45720</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="10">
-        <v>5000</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>45663</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="10">
-        <v>17000</v>
-      </c>
-      <c r="E15" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>27000</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="2"/>
-        <v>24300</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="23">
         <v>45726</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="2">
         <v>15000</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
+      <c r="F16" s="3">
+        <f>D16+E16</f>
         <v>15000</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="1"/>
+      <c r="G16" s="4">
+        <f>F16*10/100</f>
         <v>1500</v>
       </c>
-      <c r="H16" s="6">
-        <f t="shared" si="2"/>
+      <c r="H16" s="4">
+        <f>F16-G16</f>
         <v>13500</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1166,122 +1245,263 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
+      <c r="A17" s="19">
+        <v>45737</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="20">
+        <v>16000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="3">
+        <f>D17+E17</f>
+        <v>26000</v>
+      </c>
+      <c r="G17" s="4">
+        <f>F17*10/100</f>
+        <v>2600</v>
+      </c>
+      <c r="H17" s="4">
+        <f>F17-G17</f>
+        <v>23400</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>45739</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="20">
+        <v>53200</v>
+      </c>
+      <c r="E18" s="2">
+        <v>26000</v>
+      </c>
+      <c r="F18" s="3">
+        <f>D18+E18</f>
+        <v>79200</v>
+      </c>
+      <c r="G18" s="4">
+        <f>F18*10/100</f>
+        <v>7920</v>
+      </c>
+      <c r="H18" s="4">
+        <f>F18-G18</f>
+        <v>71280</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>45740</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="20">
+        <v>15600</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="3">
+        <f>D19+E19</f>
+        <v>16600</v>
+      </c>
+      <c r="G19" s="4">
+        <f>F19*10/100</f>
+        <v>1660</v>
+      </c>
+      <c r="H19" s="4">
+        <f>F19-G19</f>
+        <v>14940</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>45742</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="20">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>750</v>
+      </c>
+      <c r="F20" s="3">
+        <f>D20+E20</f>
+        <v>5750</v>
+      </c>
+      <c r="G20" s="4">
+        <f>F20*10/100</f>
+        <v>575</v>
+      </c>
+      <c r="H20" s="4">
+        <f>F20-G20</f>
+        <v>5175</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>45743</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="20">
+        <v>16000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="3">
+        <f>D21+E21</f>
+        <v>26000</v>
+      </c>
+      <c r="G21" s="4">
+        <f>F21*10/100</f>
+        <v>2600</v>
+      </c>
+      <c r="H21" s="4">
+        <f>F21-G21</f>
+        <v>23400</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>45752</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="20">
+        <v>18400</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="3">
+        <f>D22+E22</f>
+        <v>24400</v>
+      </c>
+      <c r="G22" s="4">
+        <f>F22*10/100</f>
+        <v>2440</v>
+      </c>
+      <c r="H22" s="4">
+        <f>F22-G22</f>
+        <v>21960</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>45754</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="20">
+        <v>15000</v>
+      </c>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F23" s="3">
+        <f>D23+E23</f>
+        <v>15000</v>
+      </c>
+      <c r="G23" s="4">
+        <f>F23*10/100</f>
+        <v>1500</v>
+      </c>
+      <c r="H23" s="4">
+        <f>F23-G23</f>
+        <v>13500</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>45757</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="20">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>14000</v>
+      </c>
+      <c r="F24" s="3">
+        <f>D24+E24</f>
+        <v>33000</v>
+      </c>
+      <c r="G24" s="4">
+        <f>F24*10/100</f>
+        <v>3300</v>
+      </c>
+      <c r="H24" s="4">
+        <f>F24-G24</f>
+        <v>29700</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1292,7 +1512,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1303,6 +1523,9 @@
       <c r="I26" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:I24">
+    <sortCondition ref="A1" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J2:L2"/>
@@ -1310,4 +1533,95 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="e">
+        <f>"Dr " &amp; SUMIF(#REF!,"paid",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B4" s="4" t="e">
+        <f>"Cr " &amp; SUMIF(#REF!,"pending",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="6" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="e">
+        <f>"Cr "  &amp; SUMIF(#REF!, "paid",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B7" s="2" t="e">
+        <f>"Dr " &amp; SUMIF(#REF!, "pending",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="6" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MAA-YOJANA-PACKAGELIST/Accounts/transactionDetails.xlsx
+++ b/MAA-YOJANA-PACKAGELIST/Accounts/transactionDetails.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>T.ID</t>
   </si>
@@ -210,6 +210,84 @@
   </si>
   <si>
     <t>Chhitar Bairwa</t>
+  </si>
+  <si>
+    <t>T15042538304371</t>
+  </si>
+  <si>
+    <t>Ratta Bhil</t>
+  </si>
+  <si>
+    <t>Lokesh Kumar Meena</t>
+  </si>
+  <si>
+    <t>T18042538378759</t>
+  </si>
+  <si>
+    <t>T23042538488175</t>
+  </si>
+  <si>
+    <t>Ratani Devi</t>
+  </si>
+  <si>
+    <t>T25042538536494</t>
+  </si>
+  <si>
+    <t>Durga devi</t>
+  </si>
+  <si>
+    <t>T26042538556820</t>
+  </si>
+  <si>
+    <t>Prkash Chandr</t>
+  </si>
+  <si>
+    <t>T26042538564212</t>
+  </si>
+  <si>
+    <t>T30042538650418</t>
+  </si>
+  <si>
+    <t>Jamani Devi</t>
+  </si>
+  <si>
+    <t>T01052538683742</t>
+  </si>
+  <si>
+    <t>T04052538753885</t>
+  </si>
+  <si>
+    <t>Sunil Sahu</t>
+  </si>
+  <si>
+    <t>T08052538854512</t>
+  </si>
+  <si>
+    <t>Sukhdev Singh</t>
+  </si>
+  <si>
+    <t>T10052538909506</t>
+  </si>
+  <si>
+    <t>Jawan Singh</t>
+  </si>
+  <si>
+    <t>T19052539117469</t>
+  </si>
+  <si>
+    <t>Harji Gadri</t>
+  </si>
+  <si>
+    <t>T25052539285946</t>
+  </si>
+  <si>
+    <t>Mamta Bairagi</t>
+  </si>
+  <si>
+    <t>T31052539437744</t>
+  </si>
+  <si>
+    <t>Manoj Teli</t>
   </si>
 </sst>
 </file>
@@ -219,19 +297,13 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -243,20 +315,91 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF073B31"/>
+      <color rgb="FF00B050"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF7030A0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF362B36"/>
+      <color theme="3"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -292,17 +435,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -310,50 +451,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,17 +847,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
@@ -685,138 +871,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="24">
         <v>45660</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="27">
         <v>17000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="27">
         <v>10000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="28">
         <f>D2+E2</f>
         <v>27000</v>
       </c>
-      <c r="G2" s="4">
-        <f>F2*10/100</f>
+      <c r="G2" s="29">
+        <f t="shared" ref="G2:G26" si="0">F2*10/100</f>
         <v>2700</v>
       </c>
-      <c r="H2" s="4">
-        <f>F2-G2</f>
+      <c r="H2" s="29">
+        <f t="shared" ref="H2:H26" si="1">F2-G2</f>
         <v>24300</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="24">
         <v>45674</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="27">
         <v>16000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="25">
         <v>6000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="28">
         <f>E3+D3</f>
         <v>22000</v>
       </c>
-      <c r="G3" s="4">
-        <f>F3*10/100</f>
+      <c r="G3" s="29">
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="H3" s="4">
-        <f>F3-G3</f>
+      <c r="H3" s="29">
+        <f t="shared" si="1"/>
         <v>19800</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="24">
         <v>45684</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="25">
         <v>15000</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>D4+E4</f>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
+        <f t="shared" ref="F4:F25" si="2">D4+E4</f>
         <v>15000</v>
       </c>
-      <c r="G4" s="4">
-        <f>F4*10/100</f>
+      <c r="G4" s="29">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H4" s="4">
-        <f>F4-G4</f>
+      <c r="H4" s="29">
+        <f t="shared" si="1"/>
         <v>13500</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -827,114 +1013,114 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="30">
         <v>45690</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="14">
         <v>13200</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="17">
         <v>9000</v>
       </c>
-      <c r="F5" s="3">
-        <f>D5+E5</f>
+      <c r="F5" s="17">
+        <f t="shared" si="2"/>
         <v>22200</v>
       </c>
-      <c r="G5" s="4">
-        <f>F5*10/100</f>
+      <c r="G5" s="18">
+        <f t="shared" si="0"/>
         <v>2220</v>
       </c>
-      <c r="H5" s="4">
-        <f>F5-G5</f>
+      <c r="H5" s="18">
+        <f t="shared" si="1"/>
         <v>19980</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f>"Dr " &amp; SUMIF(I2:I24,"paid",G2:G24)</f>
-        <v>Dr 20320</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f>"Cr " &amp; SUMIF(I2:I24,"pending",G2:G24)</f>
-        <v>Cr 31305</v>
-      </c>
-      <c r="L5" s="6">
-        <f>SUM(G2:G24)</f>
-        <v>51625</v>
+      <c r="I5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="10" t="str">
+        <f>"Dr " &amp; SUMIF(I2:I70,"paid",G2:G70)</f>
+        <v>Dr 66695</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>"Cr " &amp; SUMIF(I2:I70,"pending",G2:G70)</f>
+        <v>Cr 21610</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUM(G2:G70)</f>
+        <v>88305</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>45691</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="14">
         <v>10000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="14">
         <v>5000</v>
       </c>
-      <c r="F6" s="3">
-        <f>D6+E6</f>
+      <c r="F6" s="17">
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="G6" s="4">
-        <f>F6*10/100</f>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H6" s="4">
-        <f>F6-G6</f>
+      <c r="H6" s="18">
+        <f t="shared" si="1"/>
         <v>13500</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="30">
         <v>45693</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="14">
         <v>15000</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3">
-        <f>D7+E7</f>
+      <c r="E7" s="14"/>
+      <c r="F7" s="17">
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="G7" s="4">
-        <f>F7*10/100</f>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H7" s="4">
-        <f>F7-G7</f>
+      <c r="H7" s="18">
+        <f t="shared" si="1"/>
         <v>13500</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -945,582 +1131,1296 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>45693</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="14">
         <v>12000</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="14">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
-        <f>D8+E8</f>
+      <c r="F8" s="17">
+        <f t="shared" si="2"/>
         <v>13500</v>
       </c>
-      <c r="G8" s="4">
-        <f>F8*10/100</f>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="H8" s="4">
-        <f>F8-G8</f>
+      <c r="H8" s="18">
+        <f t="shared" si="1"/>
         <v>12150</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f>"Cr "  &amp; SUMIF(I2:I24, "paid", H2:H24)</f>
-        <v>Cr 182880</v>
+      <c r="I8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f>"Cr "  &amp; SUMIF(I2:I70, "paid", H2:H70)</f>
+        <v>Cr 600255</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f>"Dr " &amp;SUMIF(I2:I24, "pending", H2:H24)</f>
-        <v>Dr 281745</v>
-      </c>
-      <c r="L8" s="6">
-        <f>SUM(H2:H24)</f>
-        <v>464625</v>
+        <f>"Dr " &amp;SUMIF(I2:I70, "pending", H2:H70)</f>
+        <v>Dr 194490</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM(H2:H70)</f>
+        <v>794745</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>45699</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="14">
         <v>40000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="14">
         <v>17000</v>
       </c>
-      <c r="F9" s="3">
-        <f>D9+E9</f>
+      <c r="F9" s="17">
+        <f t="shared" si="2"/>
         <v>57000</v>
       </c>
-      <c r="G9" s="4">
-        <f>F9*10/100</f>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
         <v>5700</v>
       </c>
-      <c r="H9" s="4">
-        <f>F9-G9</f>
+      <c r="H9" s="18">
+        <f t="shared" si="1"/>
         <v>51300</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="30">
         <v>45703</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="16">
         <v>12000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="14">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
-        <f>D10+E10</f>
+      <c r="F10" s="17">
+        <f t="shared" si="2"/>
         <v>17000</v>
       </c>
-      <c r="G10" s="4">
-        <f>F10*10/100</f>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="H10" s="4">
-        <f>F10-G10</f>
+      <c r="H10" s="18">
+        <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="30">
         <v>45705</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="16">
         <v>5000</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <f>D11+E11</f>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="G11" s="4">
-        <f>F11*10/100</f>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="H11" s="4">
-        <f>F11-G11</f>
+      <c r="H11" s="18">
+        <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="13">
         <v>45705</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="16">
         <v>15000</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <f>D12+E12</f>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="G12" s="4">
-        <f>F12*10/100</f>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H12" s="4">
-        <f>F12-G12</f>
+      <c r="H12" s="18">
+        <f t="shared" si="1"/>
         <v>13500</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>45709</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="16">
         <v>5000</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <f>D13+E13</f>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="G13" s="4">
-        <f>F13*10/100</f>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="H13" s="4">
-        <f>F13-G13</f>
+      <c r="H13" s="18">
+        <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="31">
         <v>45718</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="34">
         <v>16100</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="34">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
-        <f>D14+E14</f>
+      <c r="F14" s="35">
+        <f t="shared" si="2"/>
         <v>23100</v>
       </c>
-      <c r="G14" s="4">
-        <f>F14*10/100</f>
+      <c r="G14" s="36">
+        <f t="shared" si="0"/>
         <v>2310</v>
       </c>
-      <c r="H14" s="4">
-        <f>F14-G14</f>
+      <c r="H14" s="36">
+        <f t="shared" si="1"/>
         <v>20790</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="31">
         <v>45719</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="34">
         <v>20500</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="34">
         <v>3000</v>
       </c>
-      <c r="F15" s="3">
-        <f>D15+E15</f>
+      <c r="F15" s="35">
+        <f t="shared" si="2"/>
         <v>23500</v>
       </c>
-      <c r="G15" s="4">
-        <f>F15*10/100</f>
+      <c r="G15" s="36">
+        <f t="shared" si="0"/>
         <v>2350</v>
       </c>
-      <c r="H15" s="4">
-        <f>F15-G15</f>
+      <c r="H15" s="36">
+        <f t="shared" si="1"/>
         <v>21150</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="37">
         <v>45726</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="32">
         <v>15000</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3">
-        <f>D16+E16</f>
+      <c r="E16" s="32"/>
+      <c r="F16" s="35">
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="G16" s="4">
-        <f>F16*10/100</f>
+      <c r="G16" s="36">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H16" s="4">
-        <f>F16-G16</f>
+      <c r="H16" s="36">
+        <f t="shared" si="1"/>
         <v>13500</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>45737</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="34">
+        <v>16000</v>
+      </c>
+      <c r="E17" s="32">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="35">
+        <f t="shared" si="2"/>
+        <v>26000</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="H17" s="36">
+        <f t="shared" si="1"/>
+        <v>23400</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>45739</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="34">
+        <v>53200</v>
+      </c>
+      <c r="E18" s="32">
+        <v>26000</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" si="2"/>
+        <v>79200</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="0"/>
+        <v>7920</v>
+      </c>
+      <c r="H18" s="36">
+        <f t="shared" si="1"/>
+        <v>71280</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>45740</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="34">
+        <v>15600</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="2"/>
+        <v>16600</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="0"/>
+        <v>1660</v>
+      </c>
+      <c r="H19" s="36">
+        <f t="shared" si="1"/>
+        <v>14940</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>45742</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="34">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="32">
+        <v>750</v>
+      </c>
+      <c r="F20" s="35">
+        <f t="shared" si="2"/>
+        <v>5750</v>
+      </c>
+      <c r="G20" s="36">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="H20" s="36">
+        <f t="shared" si="1"/>
+        <v>5175</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>45743</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="34">
+        <v>16000</v>
+      </c>
+      <c r="E21" s="32">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="35">
+        <f t="shared" si="2"/>
+        <v>26000</v>
+      </c>
+      <c r="G21" s="36">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="H21" s="36">
+        <f t="shared" si="1"/>
+        <v>23400</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>45752</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="21">
+        <v>18400</v>
+      </c>
+      <c r="E22" s="19">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="2"/>
+        <v>24400</v>
+      </c>
+      <c r="G22" s="23">
+        <f t="shared" si="0"/>
+        <v>2440</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" si="1"/>
+        <v>21960</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>45754</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="21">
+        <v>15000</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="H23" s="23">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>45757</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="21">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="19">
+        <v>14000</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="2"/>
+        <v>33000</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="1"/>
+        <v>29700</v>
+      </c>
+      <c r="I24" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>45737</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="9" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>45762</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="21">
+        <v>12000</v>
+      </c>
+      <c r="E25" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="1"/>
+        <v>15300</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>45765</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="19">
+        <v>53200</v>
+      </c>
+      <c r="E26" s="19">
+        <v>26000</v>
+      </c>
+      <c r="F26" s="19">
+        <f>D26+E26</f>
+        <v>79200</v>
+      </c>
+      <c r="G26" s="19">
+        <f t="shared" si="0"/>
+        <v>7920</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="1"/>
+        <v>71280</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>45770</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="41">
+        <v>12000</v>
+      </c>
+      <c r="E27" s="42">
+        <v>5000</v>
+      </c>
+      <c r="F27" s="42">
+        <f>D27+E27</f>
+        <v>17000</v>
+      </c>
+      <c r="G27" s="43">
+        <f>F27*10/100</f>
+        <v>1700</v>
+      </c>
+      <c r="H27" s="43">
+        <f>F27-G27</f>
+        <v>15300</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>45772</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="41">
+        <v>5000</v>
+      </c>
+      <c r="E28" s="42">
+        <v>0</v>
+      </c>
+      <c r="F28" s="42">
+        <f>D28+E28</f>
+        <v>5000</v>
+      </c>
+      <c r="G28" s="43">
+        <f t="shared" ref="G28:G44" si="3">F28*10/100</f>
+        <v>500</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" ref="H28:H44" si="4">F28-G28</f>
+        <v>4500</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>45773</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="41">
+        <v>15000</v>
+      </c>
+      <c r="E29" s="42">
+        <v>51000</v>
+      </c>
+      <c r="F29" s="42">
+        <f>D29+E29</f>
+        <v>66000</v>
+      </c>
+      <c r="G29" s="43">
+        <f t="shared" si="3"/>
+        <v>6600</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" si="4"/>
+        <v>59400</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>45773</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="41">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="42">
+        <f t="shared" ref="F30:F44" si="5">D30+E30</f>
+        <v>5000</v>
+      </c>
+      <c r="G30" s="43">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="H30" s="43">
+        <f t="shared" si="4"/>
+        <v>4500</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>45777</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="41">
+        <v>5000</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="42">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="G31" s="43">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="H31" s="43">
+        <f t="shared" si="4"/>
+        <v>4500</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="44">
+        <v>45778</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="20">
-        <v>16000</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F17" s="3">
-        <f>D17+E17</f>
-        <v>26000</v>
-      </c>
-      <c r="G17" s="4">
-        <f>F17*10/100</f>
-        <v>2600</v>
-      </c>
-      <c r="H17" s="4">
-        <f>F17-G17</f>
-        <v>23400</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="D32" s="46">
+        <v>15000</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="47">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="G32" s="48">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="44">
+        <v>45781</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="46">
+        <v>40000</v>
+      </c>
+      <c r="E33" s="45">
+        <v>17000</v>
+      </c>
+      <c r="F33" s="47">
+        <f t="shared" si="5"/>
+        <v>57000</v>
+      </c>
+      <c r="G33" s="48">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="4"/>
+        <v>51300</v>
+      </c>
+      <c r="I33" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="44">
+        <v>45785</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="45">
+        <v>20800</v>
+      </c>
+      <c r="E34" s="49">
+        <v>7000</v>
+      </c>
+      <c r="F34" s="47">
+        <f t="shared" si="5"/>
+        <v>27800</v>
+      </c>
+      <c r="G34" s="48">
+        <f t="shared" si="3"/>
+        <v>2780</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="4"/>
+        <v>25020</v>
+      </c>
+      <c r="I34" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="44">
+        <v>45787</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="45">
+        <v>20800</v>
+      </c>
+      <c r="E35" s="45">
+        <v>7000</v>
+      </c>
+      <c r="F35" s="47">
+        <f t="shared" si="5"/>
+        <v>27800</v>
+      </c>
+      <c r="G35" s="48">
+        <f t="shared" si="3"/>
+        <v>2780</v>
+      </c>
+      <c r="H35" s="48">
+        <f t="shared" si="4"/>
+        <v>25020</v>
+      </c>
+      <c r="I35" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="44">
+        <v>45796</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="49">
+        <v>15000</v>
+      </c>
+      <c r="E36" s="45">
+        <v>0</v>
+      </c>
+      <c r="F36" s="47">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="G36" s="48">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="H36" s="48">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="I36" s="45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>45739</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="20">
-        <v>53200</v>
-      </c>
-      <c r="E18" s="2">
-        <v>26000</v>
-      </c>
-      <c r="F18" s="3">
-        <f>D18+E18</f>
-        <v>79200</v>
-      </c>
-      <c r="G18" s="4">
-        <f>F18*10/100</f>
-        <v>7920</v>
-      </c>
-      <c r="H18" s="4">
-        <f>F18-G18</f>
-        <v>71280</v>
-      </c>
-      <c r="I18" s="2" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="44">
+        <v>45802</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="45">
+        <v>15000</v>
+      </c>
+      <c r="E37" s="45">
+        <v>0</v>
+      </c>
+      <c r="F37" s="47">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="G37" s="48">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="H37" s="48">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="I37" s="45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>45740</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="20">
-        <v>15600</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="3">
-        <f>D19+E19</f>
-        <v>16600</v>
-      </c>
-      <c r="G19" s="4">
-        <f>F19*10/100</f>
-        <v>1660</v>
-      </c>
-      <c r="H19" s="4">
-        <f>F19-G19</f>
-        <v>14940</v>
-      </c>
-      <c r="I19" s="2" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="44">
+        <v>45808</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="49">
+        <v>15000</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="47">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="G38" s="48">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="H38" s="48">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="I38" s="45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>45742</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="20">
-        <v>5000</v>
-      </c>
-      <c r="E20" s="2">
-        <v>750</v>
-      </c>
-      <c r="F20" s="3">
-        <f>D20+E20</f>
-        <v>5750</v>
-      </c>
-      <c r="G20" s="4">
-        <f>F20*10/100</f>
-        <v>575</v>
-      </c>
-      <c r="H20" s="4">
-        <f>F20-G20</f>
-        <v>5175</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>45743</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="20">
-        <v>16000</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F21" s="3">
-        <f>D21+E21</f>
-        <v>26000</v>
-      </c>
-      <c r="G21" s="4">
-        <f>F21*10/100</f>
-        <v>2600</v>
-      </c>
-      <c r="H21" s="4">
-        <f>F21-G21</f>
-        <v>23400</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>45752</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="20">
-        <v>18400</v>
-      </c>
-      <c r="E22" s="2">
-        <v>6000</v>
-      </c>
-      <c r="F22" s="3">
-        <f>D22+E22</f>
-        <v>24400</v>
-      </c>
-      <c r="G22" s="4">
-        <f>F22*10/100</f>
-        <v>2440</v>
-      </c>
-      <c r="H22" s="4">
-        <f>F22-G22</f>
-        <v>21960</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>45754</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="20">
-        <v>15000</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <f>D23+E23</f>
-        <v>15000</v>
-      </c>
-      <c r="G23" s="4">
-        <f>F23*10/100</f>
-        <v>1500</v>
-      </c>
-      <c r="H23" s="4">
-        <f>F23-G23</f>
-        <v>13500</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>45757</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="20">
-        <v>19000</v>
-      </c>
-      <c r="E24" s="2">
-        <v>14000</v>
-      </c>
-      <c r="F24" s="3">
-        <f>D24+E24</f>
-        <v>33000</v>
-      </c>
-      <c r="G24" s="4">
-        <f>F24*10/100</f>
-        <v>3300</v>
-      </c>
-      <c r="H24" s="4">
-        <f>F24-G24</f>
-        <v>29700</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:I24">
@@ -1551,11 +2451,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1574,23 +2474,23 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="e">
+      <c r="A4" s="3" t="e">
         <f>"Dr " &amp; SUMIF(#REF!,"paid",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B4" s="4" t="e">
+      <c r="B4" s="3" t="e">
         <f>"Cr " &amp; SUMIF(#REF!,"pending",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="6" t="e">
+      <c r="C4" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1612,7 +2512,7 @@
         <f>"Dr " &amp; SUMIF(#REF!, "pending",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="6" t="e">
+      <c r="C7" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>

--- a/MAA-YOJANA-PACKAGELIST/Accounts/transactionDetails.xlsx
+++ b/MAA-YOJANA-PACKAGELIST/Accounts/transactionDetails.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>T.ID</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Manoj Teli</t>
+  </si>
+  <si>
+    <t>T04062539537800</t>
+  </si>
+  <si>
+    <t>Devi Lal Gadri</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -539,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,8 +859,8 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,11 +1058,11 @@
       </c>
       <c r="K5" s="3" t="str">
         <f>"Cr " &amp; SUMIF(I2:I70,"pending",G2:G70)</f>
-        <v>Cr 21610</v>
+        <v>Cr 23110</v>
       </c>
       <c r="L5" s="4">
         <f>SUM(G2:G70)</f>
-        <v>88305</v>
+        <v>89805</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1167,11 +1176,11 @@
       </c>
       <c r="K8" s="2" t="str">
         <f>"Dr " &amp;SUMIF(I2:I70, "pending", H2:H70)</f>
-        <v>Dr 194490</v>
+        <v>Dr 207990</v>
       </c>
       <c r="L8" s="4">
         <f>SUM(H2:H70)</f>
-        <v>794745</v>
+        <v>808245</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2127,24 +2136,34 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="54">
+        <v>45812</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2">
+        <v>15000</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H39" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>13500</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
